--- a/simulation_data/one_step_algorithm/1s_error_level_8_percent_water_99.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_8_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.02060054182671</v>
+        <v>89.96802177337162</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8740431833643481</v>
+        <v>0.8775902612240711</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.88259787772466</v>
+        <v>89.01156732927836</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7813123246109558</v>
+        <v>0.9252390864952824</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.90285911627085</v>
+        <v>88.04903741140386</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9368952683456615</v>
+        <v>0.8941486603041123</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.96877763869782</v>
+        <v>86.85838102596786</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8893707691510603</v>
+        <v>0.7642935268510584</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.10862796869932</v>
+        <v>86.10393096741012</v>
       </c>
       <c r="D6" t="n">
-        <v>0.742654616896437</v>
+        <v>0.8697670930938455</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.91360249528704</v>
+        <v>84.94591671133031</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9201344714838514</v>
+        <v>0.9271520686631322</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.97779699794565</v>
+        <v>83.93447144338975</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8730227446807279</v>
+        <v>0.8178594165091619</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.86094874830755</v>
+        <v>82.92214875744861</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9477801601116372</v>
+        <v>0.8929737744375409</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.95707076886902</v>
+        <v>81.93303787309036</v>
       </c>
       <c r="D10" t="n">
-        <v>0.886000754056898</v>
+        <v>1.072899987976865</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.9139846831402</v>
+        <v>80.9007431450234</v>
       </c>
       <c r="D11" t="n">
-        <v>1.057067404818023</v>
+        <v>0.9803928964433697</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.86446539330672</v>
+        <v>80.08695294496705</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9559863052546504</v>
+        <v>0.9473980077745574</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.85021525171091</v>
+        <v>79.04813062152714</v>
       </c>
       <c r="D13" t="n">
-        <v>1.087696413764352</v>
+        <v>0.8600292823060747</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.96129202670004</v>
+        <v>78.00649739317203</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9029441048308355</v>
+        <v>1.068060183559782</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.04820168052065</v>
+        <v>76.99422562848744</v>
       </c>
       <c r="D15" t="n">
-        <v>1.126330553011287</v>
+        <v>1.026646962637128</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.90751952028653</v>
+        <v>76.02981089321926</v>
       </c>
       <c r="D16" t="n">
-        <v>1.130749819909733</v>
+        <v>1.089782165945555</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.11862653297156</v>
+        <v>75.09839745373496</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9397808811879598</v>
+        <v>1.093804528564062</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.1702592733329</v>
+        <v>73.93345874337545</v>
       </c>
       <c r="D18" t="n">
-        <v>1.078054554091142</v>
+        <v>0.9202571411694425</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>73.01006461677527</v>
+        <v>73.09452012337746</v>
       </c>
       <c r="D19" t="n">
-        <v>1.146560571975541</v>
+        <v>0.9965615301418644</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.91555246152235</v>
+        <v>72.14414052886505</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9885466576999336</v>
+        <v>1.091072952326065</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.910839539233</v>
+        <v>71.02228684119709</v>
       </c>
       <c r="D21" t="n">
-        <v>1.023812608002051</v>
+        <v>1.328370715105637</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.83437018859212</v>
+        <v>69.93086063776212</v>
       </c>
       <c r="D22" t="n">
-        <v>1.129630772999978</v>
+        <v>1.165696093532708</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.13569444768292</v>
+        <v>68.84371128443908</v>
       </c>
       <c r="D23" t="n">
-        <v>1.140903898759911</v>
+        <v>1.238687698700148</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.9587140657416</v>
+        <v>67.84565326245722</v>
       </c>
       <c r="D24" t="n">
-        <v>1.137113241903316</v>
+        <v>1.142703086040729</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.86587554875933</v>
+        <v>66.83653644638731</v>
       </c>
       <c r="D25" t="n">
-        <v>1.293311119322882</v>
+        <v>1.234468019378203</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.75075927081868</v>
+        <v>65.93002745849689</v>
       </c>
       <c r="D26" t="n">
-        <v>1.405052874278429</v>
+        <v>1.182600873140859</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.8709479002998</v>
+        <v>65.03079313680263</v>
       </c>
       <c r="D27" t="n">
-        <v>1.356915546849619</v>
+        <v>1.377375759482259</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.94691339065984</v>
+        <v>64.009955994024</v>
       </c>
       <c r="D28" t="n">
-        <v>1.2903929651148</v>
+        <v>1.228165533696144</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.93857698477736</v>
+        <v>63.02852225785438</v>
       </c>
       <c r="D29" t="n">
-        <v>1.253757104841742</v>
+        <v>1.237522809177602</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.85020986119723</v>
+        <v>61.91132220590011</v>
       </c>
       <c r="D30" t="n">
-        <v>1.275463149426542</v>
+        <v>1.293203863204835</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.93311004474985</v>
+        <v>60.769258707945</v>
       </c>
       <c r="D31" t="n">
-        <v>1.25443479214004</v>
+        <v>1.440749289793009</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.07802332673962</v>
+        <v>59.97819171842324</v>
       </c>
       <c r="D32" t="n">
-        <v>1.36396487510814</v>
+        <v>1.446147104263313</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.92634644771177</v>
+        <v>59.06661208043082</v>
       </c>
       <c r="D33" t="n">
-        <v>1.372877874179214</v>
+        <v>1.586774973542161</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.02916399718151</v>
+        <v>57.70718146168788</v>
       </c>
       <c r="D34" t="n">
-        <v>1.302345220945392</v>
+        <v>1.315622450124486</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.95630479999013</v>
+        <v>57.09601380912032</v>
       </c>
       <c r="D35" t="n">
-        <v>1.269910509327853</v>
+        <v>1.367903326947038</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.87466728723646</v>
+        <v>56.10852724035853</v>
       </c>
       <c r="D36" t="n">
-        <v>1.268518799761891</v>
+        <v>1.298599166942098</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.18702782473133</v>
+        <v>54.96403355561379</v>
       </c>
       <c r="D37" t="n">
-        <v>1.417763333591526</v>
+        <v>1.268987594217014</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.9821784071852</v>
+        <v>53.90221829052162</v>
       </c>
       <c r="D38" t="n">
-        <v>1.418911060402867</v>
+        <v>1.37454818463819</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.02018799751828</v>
+        <v>53.00780940513003</v>
       </c>
       <c r="D39" t="n">
-        <v>1.492920034029317</v>
+        <v>1.406039623286486</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.00635001979975</v>
+        <v>51.99772189598163</v>
       </c>
       <c r="D40" t="n">
-        <v>1.410438237375897</v>
+        <v>1.71231201323689</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.10588500930768</v>
+        <v>50.67263002326635</v>
       </c>
       <c r="D41" t="n">
-        <v>1.556524951952766</v>
+        <v>1.347381424463466</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.7892629802389</v>
+        <v>49.97587768290234</v>
       </c>
       <c r="D42" t="n">
-        <v>1.564286443374391</v>
+        <v>1.568867404426166</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.89518127396596</v>
+        <v>48.82122148074168</v>
       </c>
       <c r="D43" t="n">
-        <v>1.685047721576266</v>
+        <v>1.483270904584354</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.03990553874343</v>
+        <v>47.72952903016311</v>
       </c>
       <c r="D44" t="n">
-        <v>1.474003455260245</v>
+        <v>1.628695686181866</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.8835666719696</v>
+        <v>47.1620022057349</v>
       </c>
       <c r="D45" t="n">
-        <v>1.662903328603249</v>
+        <v>1.474639789194372</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.03419532791522</v>
+        <v>45.83683495640552</v>
       </c>
       <c r="D46" t="n">
-        <v>1.670308075955831</v>
+        <v>1.658037825180605</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.95545638628769</v>
+        <v>44.87876133027046</v>
       </c>
       <c r="D47" t="n">
-        <v>1.463896595465086</v>
+        <v>1.649198567124497</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.59267385876458</v>
+        <v>44.04196673690964</v>
       </c>
       <c r="D48" t="n">
-        <v>1.527839229154651</v>
+        <v>1.674103102492064</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.86971186650213</v>
+        <v>43.0170564089353</v>
       </c>
       <c r="D49" t="n">
-        <v>1.554599603322553</v>
+        <v>1.90565903121079</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.90431776317382</v>
+        <v>41.86851916301346</v>
       </c>
       <c r="D50" t="n">
-        <v>1.459586736694695</v>
+        <v>1.660917557066943</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.09263741719122</v>
+        <v>41.21396273245685</v>
       </c>
       <c r="D51" t="n">
-        <v>1.778516799473925</v>
+        <v>1.737084018458645</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.86988637206651</v>
+        <v>39.93727307963361</v>
       </c>
       <c r="D52" t="n">
-        <v>1.691219752455056</v>
+        <v>1.748675782640803</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.92105284621793</v>
+        <v>39.2754519456746</v>
       </c>
       <c r="D53" t="n">
-        <v>1.606402575511725</v>
+        <v>1.507647443051273</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.88057496420169</v>
+        <v>38.06110476289844</v>
       </c>
       <c r="D54" t="n">
-        <v>1.59188567628073</v>
+        <v>1.71190889673535</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.7904250352033</v>
+        <v>37.04640050338696</v>
       </c>
       <c r="D55" t="n">
-        <v>1.663737013321256</v>
+        <v>1.659173477100662</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.72961742679207</v>
+        <v>36.02790904802789</v>
       </c>
       <c r="D56" t="n">
-        <v>1.802079362632859</v>
+        <v>1.748210656748284</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.16105759576799</v>
+        <v>35.04019957965136</v>
       </c>
       <c r="D57" t="n">
-        <v>1.645442111322013</v>
+        <v>1.685294061471873</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.89065790828433</v>
+        <v>33.86122067936967</v>
       </c>
       <c r="D58" t="n">
-        <v>1.907066612663111</v>
+        <v>1.85100857919632</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.58482430801089</v>
+        <v>33.24084490229673</v>
       </c>
       <c r="D59" t="n">
-        <v>2.07558238726892</v>
+        <v>1.799669594539841</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.93190008137336</v>
+        <v>31.94235541200432</v>
       </c>
       <c r="D60" t="n">
-        <v>1.729076334310541</v>
+        <v>2.054737274565823</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.78273999655841</v>
+        <v>30.76997315801363</v>
       </c>
       <c r="D61" t="n">
-        <v>1.798054750650098</v>
+        <v>1.93723330994388</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.97302207635783</v>
+        <v>29.97932508662685</v>
       </c>
       <c r="D62" t="n">
-        <v>1.826884814109971</v>
+        <v>1.825756142587329</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.2439277797178</v>
+        <v>28.98405644600128</v>
       </c>
       <c r="D63" t="n">
-        <v>1.936575987688688</v>
+        <v>2.140379740761198</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.8524373718203</v>
+        <v>28.10878661481895</v>
       </c>
       <c r="D64" t="n">
-        <v>2.078898800090991</v>
+        <v>1.757410667993382</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.7251804932355</v>
+        <v>26.77382152867262</v>
       </c>
       <c r="D65" t="n">
-        <v>1.841726280070018</v>
+        <v>1.762058630510174</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.89260326801374</v>
+        <v>26.03665981706492</v>
       </c>
       <c r="D66" t="n">
-        <v>1.969635737700643</v>
+        <v>1.833734424796933</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.31164565109511</v>
+        <v>25.0552956399228</v>
       </c>
       <c r="D67" t="n">
-        <v>1.724763264098059</v>
+        <v>1.636667604132672</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.10954758812712</v>
+        <v>23.87157683632743</v>
       </c>
       <c r="D68" t="n">
-        <v>2.091581532779314</v>
+        <v>2.140362091693978</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.56614843822154</v>
+        <v>22.95971438741705</v>
       </c>
       <c r="D69" t="n">
-        <v>1.792063327808244</v>
+        <v>1.777626494517143</v>
       </c>
     </row>
   </sheetData>
